--- a/телефоны.xlsx
+++ b/телефоны.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Coding\Python\Telephone Dict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F36238C-EFD5-4007-B04A-E49E43F5387B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCD8EB4-EA22-4816-B2E6-81019ACC864D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="26970" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1830" yWindow="1860" windowWidth="26970" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="268">
   <si>
     <t>№ кабинета</t>
   </si>
@@ -834,15 +834,18 @@
   </si>
   <si>
     <t>Администрация</t>
+  </si>
+  <si>
+    <t>Ктото</t>
+  </si>
+  <si>
+    <t>Бада</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dddd\,\ d\ mmmm&quot;, &quot;yyyy"/>
-  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1001,11 +1004,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1017,9 +1017,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1054,9 +1051,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1066,8 +1060,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1471,8 +1490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1482,1086 +1501,1089 @@
     <col min="3" max="3" width="26.140625" customWidth="1"/>
     <col min="4" max="4" width="31.85546875" customWidth="1"/>
     <col min="5" max="5" width="35.5703125" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20" style="25" customWidth="1"/>
     <col min="7" max="7" width="25.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="18" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="F2" s="20">
         <v>114</v>
       </c>
-      <c r="G2" s="7"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="20">
         <v>115</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" s="20">
         <v>117</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="D5" s="3"/>
+      <c r="E5" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F5" s="20">
         <v>117</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="D6" s="3"/>
+      <c r="E6" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" s="20">
         <v>118</v>
       </c>
-      <c r="G6" s="7"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F7" s="20">
         <v>316</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="20">
         <v>116</v>
       </c>
-      <c r="G8" s="7"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="E9" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F9" s="20">
         <v>202</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="E10" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="20">
         <v>204</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="D11" s="3"/>
+      <c r="E11" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F11" s="20">
         <v>205</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="E12" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F12" s="20">
         <v>206</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="D13" s="3"/>
+      <c r="E13" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F13" s="20">
         <v>207</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F14" s="20">
         <v>207</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4" t="s">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="D15" s="3"/>
+      <c r="E15" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F15" s="20">
         <v>208</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F16" s="20">
         <v>209</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4" t="s">
+      <c r="A17" s="2"/>
+      <c r="B17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="E17" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" s="20">
         <v>210</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="2"/>
+      <c r="B18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="E18" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F18" s="20">
         <v>211</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F19" s="20">
         <v>237</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4" t="s">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="20">
         <v>212</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="5" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4" t="s">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="20">
         <v>242</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="20">
         <v>214</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="5" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="E23" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F23" s="20">
         <v>215</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="5" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4" t="s">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F24" s="6">
+      <c r="D24" s="3"/>
+      <c r="E24" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F24" s="20">
         <v>215</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="5" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4" t="s">
+      <c r="A25" s="2"/>
+      <c r="B25" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F25" s="6">
+      <c r="D25" s="3"/>
+      <c r="E25" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F25" s="20">
         <v>216</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F26" s="6">
+      <c r="D26" s="3"/>
+      <c r="E26" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F26" s="20">
         <v>216</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="5"/>
     </row>
     <row r="27" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="20">
         <v>252</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4" t="s">
+      <c r="A28" s="2"/>
+      <c r="B28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F28" s="6">
+      <c r="E28" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F28" s="20">
         <v>219</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4" t="s">
+      <c r="A29" s="2"/>
+      <c r="B29" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F29" s="6">
+      <c r="D29" s="3"/>
+      <c r="E29" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F29" s="20">
         <v>220</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4" t="s">
+      <c r="A30" s="2"/>
+      <c r="B30" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F30" s="6">
+      <c r="D30" s="3"/>
+      <c r="E30" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F30" s="20">
         <v>221</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4" t="s">
+      <c r="A31" s="2"/>
+      <c r="B31" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F31" s="6">
+      <c r="D31" s="3"/>
+      <c r="E31" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F31" s="20">
         <v>223</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="63" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4" t="s">
+      <c r="A32" s="2"/>
+      <c r="B32" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F32" s="1">
+      <c r="E32" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F32" s="21">
         <v>225</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="7" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4" t="s">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F33" s="6">
+      <c r="D33" s="3"/>
+      <c r="E33" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F33" s="20">
         <v>228</v>
       </c>
-      <c r="G33" s="7"/>
+      <c r="G33" s="5"/>
     </row>
     <row r="34" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4" t="s">
+      <c r="A34" s="2"/>
+      <c r="B34" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F34" s="6">
+      <c r="E34" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F34" s="20">
         <v>228</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="5" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4" t="s">
+      <c r="A35" s="2"/>
+      <c r="B35" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F35" s="6">
+      <c r="D35" s="3"/>
+      <c r="E35" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F35" s="20">
         <v>229</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="5"/>
     </row>
     <row r="36" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4" t="s">
+      <c r="A36" s="2"/>
+      <c r="B36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F36" s="6">
+      <c r="E36" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F36" s="20">
         <v>229</v>
       </c>
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="5" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4" t="s">
+      <c r="A37" s="2"/>
+      <c r="B37" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F37" s="6">
+      <c r="D37" s="3"/>
+      <c r="E37" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F37" s="20">
         <v>230</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="5" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4" t="s">
+      <c r="A38" s="2"/>
+      <c r="B38" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F38" s="6">
+      <c r="E38" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F38" s="20">
         <v>231</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="5" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4" t="s">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F39" s="1">
+      <c r="E39" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F39" s="21">
         <v>232</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4" t="s">
+      <c r="A40" s="2"/>
+      <c r="B40" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F40" s="6">
+      <c r="E40" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F40" s="20">
         <v>233</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="5" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4" t="s">
+      <c r="A41" s="2"/>
+      <c r="B41" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F41" s="6">
+      <c r="E41" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F41" s="20">
         <v>250</v>
       </c>
-      <c r="G41" s="7" t="s">
+      <c r="G41" s="5" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4" t="s">
+      <c r="A42" s="2"/>
+      <c r="B42" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="E42" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F42" s="6">
+      <c r="E42" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F42" s="20">
         <v>253</v>
       </c>
-      <c r="G42" s="7" t="s">
+      <c r="G42" s="5" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4" t="s">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F43" s="6">
+      <c r="D43" s="3"/>
+      <c r="E43" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F43" s="20">
         <v>254</v>
       </c>
-      <c r="G43" s="7" t="s">
+      <c r="G43" s="5" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4" t="s">
+      <c r="A44" s="2"/>
+      <c r="B44" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="E44" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F44" s="6">
+      <c r="E44" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F44" s="20">
         <v>255</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="5" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4" t="s">
+      <c r="A45" s="2"/>
+      <c r="B45" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E45" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F45" s="6">
+      <c r="E45" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F45" s="20">
         <v>256</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="5" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4" t="s">
+      <c r="A46" s="2"/>
+      <c r="B46" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F46" s="6">
+      <c r="D46" s="3"/>
+      <c r="E46" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F46" s="20">
         <v>314</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="5" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4" t="s">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E47" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F47" s="1">
+      <c r="E47" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F47" s="21">
         <v>315</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="G47" s="7" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="10" t="s">
+      <c r="A48" s="2"/>
+      <c r="B48" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D48" s="10"/>
-      <c r="E48" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F48" s="10">
+      <c r="D48" s="8"/>
+      <c r="E48" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F48" s="22">
         <v>300</v>
       </c>
-      <c r="G48" s="10"/>
+      <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="10" t="s">
+      <c r="A49" s="2"/>
+      <c r="B49" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D49" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E49" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F49" s="10">
+      <c r="E49" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F49" s="22">
         <v>310</v>
       </c>
-      <c r="G49" s="10"/>
+      <c r="G49" s="8"/>
     </row>
     <row r="50" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="10" t="s">
+      <c r="A50" s="2"/>
+      <c r="B50" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="D50" s="10"/>
-      <c r="E50" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F50" s="10">
+      <c r="D50" s="8"/>
+      <c r="E50" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F50" s="22">
         <v>317</v>
       </c>
-      <c r="G50" s="10"/>
+      <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="16" t="s">
+      <c r="A51" s="2"/>
+      <c r="B51" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="C51" s="16" t="s">
+      <c r="C51" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D51" s="16"/>
-      <c r="E51" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F51" s="16">
+      <c r="D51" s="14"/>
+      <c r="E51" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F51" s="23">
         <v>122</v>
       </c>
-      <c r="G51" s="16"/>
+      <c r="G51" s="14"/>
     </row>
     <row r="52" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="20" t="s">
+      <c r="A52" s="2"/>
+      <c r="B52" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D52" s="20"/>
-      <c r="E52" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F52" s="20">
+      <c r="D52" s="17"/>
+      <c r="E52" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F52" s="24">
         <v>125</v>
       </c>
-      <c r="G52" s="20"/>
+      <c r="G52" s="17"/>
     </row>
     <row r="53" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="15" t="s">
         <v>264</v>
       </c>
+      <c r="E53" s="28" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
     </row>
     <row r="61" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -2610,527 +2632,527 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="14">
+      <c r="A4" s="12">
         <v>7</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="13" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="14">
+      <c r="A5" s="12">
         <v>15</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="13" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="14">
+      <c r="A6" s="12">
         <v>17</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+      <c r="A7" s="12">
         <v>18</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="13" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="A8" s="12">
         <v>22</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="13" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
+      <c r="A9" s="12">
         <v>24</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="13" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+      <c r="A10" s="12">
         <v>34</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="13" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
+      <c r="A11" s="12">
         <v>36</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="13" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="14">
+      <c r="A12" s="12">
         <v>43</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="14">
+      <c r="A13" s="12">
         <v>46</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="13" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="63" x14ac:dyDescent="0.2">
-      <c r="A14" s="14">
+      <c r="A14" s="12">
         <v>47</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="13" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="14">
+      <c r="A15" s="12">
         <v>57</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="13" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A16" s="14">
+      <c r="A16" s="12">
         <v>62</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="14">
+      <c r="A17" s="12">
         <v>67</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="13" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="63" x14ac:dyDescent="0.2">
-      <c r="A18" s="14">
+      <c r="A18" s="12">
         <v>69</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="13" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="14">
+      <c r="A19" s="12">
         <v>74</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="13" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="63" x14ac:dyDescent="0.2">
-      <c r="A20" s="14">
+      <c r="A20" s="12">
         <v>75</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="13" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="63" x14ac:dyDescent="0.2">
-      <c r="A21" s="14">
+      <c r="A21" s="12">
         <v>81</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="D21" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="13" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="14">
+      <c r="A22" s="12">
         <v>85</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="13" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="14">
+      <c r="A23" s="12">
         <v>89</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="14">
+      <c r="A24" s="12">
         <v>100</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="13" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="63" x14ac:dyDescent="0.2">
-      <c r="A25" s="14">
+      <c r="A25" s="12">
         <v>103</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="13" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="63" x14ac:dyDescent="0.2">
-      <c r="A26" s="14">
+      <c r="A26" s="12">
         <v>107</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="14">
+      <c r="A27" s="12">
         <v>110</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="D27" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="13" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="63" x14ac:dyDescent="0.2">
-      <c r="A28" s="14">
+      <c r="A28" s="12">
         <v>117</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="D28" s="15" t="s">
+      <c r="D28" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="13" t="s">
         <v>257</v>
       </c>
     </row>

--- a/телефоны.xlsx
+++ b/телефоны.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\Coding\Python\Telephone Dict\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBCD8EB4-EA22-4816-B2E6-81019ACC864D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAD65CD-F136-491D-93B6-15F6A2965164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1830" yWindow="1860" windowWidth="26970" windowHeight="11295" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,21 +21,12 @@
     <definedName name="Excel_BuiltIn_Print_Area" localSheetId="0">Лист1!$F$1:$G$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$F$1:$G$47</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="268">
   <si>
     <t>№ кабинета</t>
   </si>
@@ -302,9 +293,6 @@
     <t>Богусевич Али Станиславович</t>
   </si>
   <si>
-    <t xml:space="preserve">Заместитель директора по </t>
-  </si>
-  <si>
     <t xml:space="preserve">bas@tversystema.ru </t>
   </si>
   <si>
@@ -827,19 +815,22 @@
     <t>Склад</t>
   </si>
   <si>
-    <t xml:space="preserve"> Иванов Иван Иванович</t>
-  </si>
-  <si>
-    <t>Наладчик</t>
-  </si>
-  <si>
     <t>Администрация</t>
   </si>
   <si>
-    <t>Ктото</t>
-  </si>
-  <si>
     <t>Бада</t>
+  </si>
+  <si>
+    <t>Почты для рассылок</t>
+  </si>
+  <si>
+    <t>Почта</t>
+  </si>
+  <si>
+    <t>Заместитель директора по внешним связям</t>
+  </si>
+  <si>
+    <t>8(920)160-60-60</t>
   </si>
 </sst>
 </file>
@@ -898,7 +889,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -915,6 +906,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="50"/>
         <bgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1004,7 +1001,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1085,8 +1082,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1488,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="B48" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E55" sqref="D55:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1504,9 +1507,11 @@
     <col min="6" max="6" width="20" style="25" customWidth="1"/>
     <col min="7" max="7" width="25.5703125" customWidth="1"/>
     <col min="8" max="8" width="16.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1520,16 +1525,20 @@
         <v>3</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="I1" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="J1" s="30"/>
+    </row>
+    <row r="2" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -1539,14 +1548,20 @@
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F2" s="20">
         <v>114</v>
       </c>
       <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="29" t="s">
+        <v>257</v>
+      </c>
+      <c r="J2" s="29" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>8</v>
@@ -1556,7 +1571,7 @@
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F3" s="20">
         <v>115</v>
@@ -1564,8 +1579,14 @@
       <c r="G3" s="5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -1575,7 +1596,7 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F4" s="20">
         <v>117</v>
@@ -1584,7 +1605,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>14</v>
@@ -1594,7 +1615,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F5" s="20">
         <v>117</v>
@@ -1603,7 +1624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
         <v>18</v>
@@ -1613,14 +1634,14 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F6" s="20">
         <v>118</v>
       </c>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="s">
         <v>20</v>
@@ -1630,7 +1651,7 @@
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F7" s="20">
         <v>316</v>
@@ -1639,7 +1660,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="s">
         <v>23</v>
@@ -1649,14 +1670,14 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F8" s="20">
         <v>116</v>
       </c>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="s">
         <v>25</v>
@@ -1668,7 +1689,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F9" s="20">
         <v>202</v>
@@ -1677,7 +1698,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="3" t="s">
         <v>30</v>
@@ -1689,7 +1710,7 @@
         <v>32</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F10" s="20">
         <v>204</v>
@@ -1698,7 +1719,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="s">
         <v>34</v>
@@ -1708,7 +1729,7 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F11" s="20">
         <v>205</v>
@@ -1717,7 +1738,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="s">
         <v>37</v>
@@ -1729,7 +1750,7 @@
         <v>39</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F12" s="20">
         <v>206</v>
@@ -1738,7 +1759,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="s">
         <v>41</v>
@@ -1748,7 +1769,7 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F13" s="20">
         <v>207</v>
@@ -1757,7 +1778,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
         <v>44</v>
@@ -1767,7 +1788,7 @@
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F14" s="20">
         <v>207</v>
@@ -1776,7 +1797,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="s">
         <v>47</v>
@@ -1786,7 +1807,7 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F15" s="20">
         <v>208</v>
@@ -1795,7 +1816,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="s">
         <v>50</v>
@@ -1805,7 +1826,7 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F16" s="20">
         <v>209</v>
@@ -1826,7 +1847,7 @@
         <v>54</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F17" s="20">
         <v>210</v>
@@ -1847,7 +1868,7 @@
         <v>58</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F18" s="20">
         <v>211</v>
@@ -1868,7 +1889,7 @@
         <v>62</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F19" s="20">
         <v>237</v>
@@ -1887,7 +1908,7 @@
         <v>65</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F20" s="20">
         <v>212</v>
@@ -1908,7 +1929,7 @@
         <v>69</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F21" s="20">
         <v>242</v>
@@ -1927,7 +1948,7 @@
         <v>72</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F22" s="20">
         <v>214</v>
@@ -1948,7 +1969,7 @@
         <v>77</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F23" s="20">
         <v>215</v>
@@ -1967,7 +1988,7 @@
       </c>
       <c r="D24" s="3"/>
       <c r="E24" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F24" s="20">
         <v>215</v>
@@ -1986,7 +2007,7 @@
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F25" s="20">
         <v>216</v>
@@ -2005,7 +2026,7 @@
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F26" s="20">
         <v>216</v>
@@ -2018,129 +2039,131 @@
         <v>87</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="E27" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F27" s="20">
         <v>252</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="5" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="D28" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>92</v>
-      </c>
       <c r="E28" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F28" s="20">
         <v>219</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D29" s="3"/>
       <c r="E29" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F29" s="20">
         <v>220</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>97</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>98</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F30" s="20">
         <v>221</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F31" s="20">
         <v>223</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="63" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>105</v>
-      </c>
       <c r="E32" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F32" s="21">
         <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>86</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F33" s="20">
         <v>228</v>
@@ -2150,35 +2173,35 @@
     <row r="34" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D34" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="E34" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F34" s="20">
         <v>228</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>113</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F35" s="20">
         <v>229</v>
@@ -2188,260 +2211,260 @@
     <row r="36" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="E36" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F36" s="20">
         <v>229</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F37" s="20">
         <v>230</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="D38" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D38" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="E38" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F38" s="20">
         <v>231</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>129</v>
-      </c>
       <c r="E39" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F39" s="21">
         <v>232</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="E40" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F40" s="20">
         <v>233</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>137</v>
-      </c>
       <c r="E41" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F41" s="20">
         <v>250</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="D42" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>142</v>
-      </c>
       <c r="E42" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F42" s="20">
         <v>253</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>76</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F43" s="20">
         <v>254</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="D44" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>149</v>
-      </c>
       <c r="E44" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F44" s="20">
         <v>255</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="D45" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>154</v>
-      </c>
       <c r="E45" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F45" s="20">
         <v>256</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D46" s="3"/>
       <c r="E46" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F46" s="20">
         <v>314</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="E47" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F47" s="21">
         <v>315</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>163</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>164</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F48" s="22">
         <v>300</v>
@@ -2451,16 +2474,16 @@
     <row r="49" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C49" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D49" s="9" t="s">
-        <v>167</v>
-      </c>
       <c r="E49" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F49" s="22">
         <v>310</v>
@@ -2470,14 +2493,14 @@
     <row r="50" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F50" s="22">
         <v>317</v>
@@ -2487,14 +2510,14 @@
     <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C51" s="14" t="s">
         <v>170</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>171</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F51" s="23">
         <v>122</v>
@@ -2504,30 +2527,24 @@
     <row r="52" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="17" t="s">
         <v>172</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>173</v>
       </c>
       <c r="D52" s="17"/>
       <c r="E52" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F52" s="24">
         <v>125</v>
       </c>
       <c r="G52" s="17"/>
     </row>
-    <row r="53" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B53" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="E53" s="28" t="s">
-        <v>266</v>
-      </c>
+    <row r="53" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B53" s="15"/>
+      <c r="C53" s="15"/>
+      <c r="E53" s="28"/>
     </row>
     <row r="57" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C57" s="15"/>
@@ -2587,6 +2604,9 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="I1:J1"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="D9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="D10" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -2617,7 +2637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -2633,24 +2653,24 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>178</v>
       </c>
       <c r="F3" s="11" t="s">
         <v>4</v>
@@ -2661,19 +2681,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="E4" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="F4" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
@@ -2681,19 +2701,19 @@
         <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="F5" s="13" t="s">
         <v>186</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
@@ -2701,19 +2721,19 @@
         <v>17</v>
       </c>
       <c r="B6" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="E6" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
@@ -2721,19 +2741,19 @@
         <v>18</v>
       </c>
       <c r="B7" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="E7" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="63" x14ac:dyDescent="0.2">
@@ -2741,19 +2761,19 @@
         <v>22</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>86</v>
       </c>
       <c r="D8" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="F8" s="13" t="s">
         <v>200</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="63" x14ac:dyDescent="0.2">
@@ -2761,19 +2781,19 @@
         <v>24</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="E9" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>204</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
@@ -2781,19 +2801,19 @@
         <v>34</v>
       </c>
       <c r="B10" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
@@ -2801,19 +2821,19 @@
         <v>36</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="D11" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="E11" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>212</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
@@ -2821,19 +2841,19 @@
         <v>43</v>
       </c>
       <c r="B12" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>148</v>
-      </c>
       <c r="D12" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>215</v>
-      </c>
       <c r="F12" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
@@ -2841,19 +2861,19 @@
         <v>46</v>
       </c>
       <c r="B13" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="E13" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>119</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="63" x14ac:dyDescent="0.2">
@@ -2861,19 +2881,19 @@
         <v>47</v>
       </c>
       <c r="B14" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="E14" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="13" t="s">
         <v>219</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
@@ -2881,19 +2901,19 @@
         <v>57</v>
       </c>
       <c r="B15" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>123</v>
-      </c>
       <c r="D15" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
@@ -2904,13 +2924,13 @@
         <v>25</v>
       </c>
       <c r="C16" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="E16" s="13" t="s">
         <v>223</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>224</v>
       </c>
       <c r="F16" s="13" t="s">
         <v>28</v>
@@ -2921,19 +2941,19 @@
         <v>67</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="D17" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="E17" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>227</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="63" x14ac:dyDescent="0.2">
@@ -2941,19 +2961,19 @@
         <v>69</v>
       </c>
       <c r="B18" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="D18" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="E18" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>231</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
@@ -2961,19 +2981,19 @@
         <v>74</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>234</v>
-      </c>
       <c r="E19" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="63" x14ac:dyDescent="0.2">
@@ -2981,19 +3001,19 @@
         <v>75</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="D20" s="13" t="s">
+      <c r="E20" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>236</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="63" x14ac:dyDescent="0.2">
@@ -3001,19 +3021,19 @@
         <v>81</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>239</v>
-      </c>
       <c r="E21" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
@@ -3021,19 +3041,19 @@
         <v>85</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
@@ -3044,13 +3064,13 @@
         <v>14</v>
       </c>
       <c r="C23" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" s="13" t="s">
         <v>241</v>
       </c>
-      <c r="D23" s="13" t="s">
-        <v>242</v>
-      </c>
       <c r="E23" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F23" s="13" t="s">
         <v>16</v>
@@ -3061,19 +3081,19 @@
         <v>100</v>
       </c>
       <c r="B24" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>244</v>
-      </c>
       <c r="E24" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="63" x14ac:dyDescent="0.2">
@@ -3081,19 +3101,19 @@
         <v>103</v>
       </c>
       <c r="B25" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D25" s="13" t="s">
+      <c r="E25" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="F25" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="63" x14ac:dyDescent="0.2">
@@ -3101,16 +3121,16 @@
         <v>107</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="D26" s="13" t="s">
-        <v>250</v>
-      </c>
       <c r="E26" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>73</v>
@@ -3121,19 +3141,19 @@
         <v>110</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="D27" s="13" t="s">
+      <c r="E27" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>252</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="63" x14ac:dyDescent="0.2">
@@ -3141,19 +3161,19 @@
         <v>117</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="D28" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="E28" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="F28" s="13" t="s">
         <v>256</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
